--- a/biology/Médecine/Henri_du_Plessis-Gouret/Henri_du_Plessis-Gouret.xlsx
+++ b/biology/Médecine/Henri_du_Plessis-Gouret/Henri_du_Plessis-Gouret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri du Plessis-Gouret, né le 10 octobre 1838 à Lausanne et mort à Fréjus le 18 juin 1913, est un médecin et enseignant vaudois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri du Plessis-Gouret fait sa scolarité à Orbe (Vaud), puis fréquente l'Académie de Lausanne et les cours de zoologie et d'anatomie du professeur Auguste Chavannes. Entre 1858 et 1862, il étudie la médecine à Berne et reçoit son brevet de médecin chirurgien-accoucheur en 1865. À Montpellier, puis à Munich, il se perfectionne dans son art et acquiert des connaissances en zoologie. Rentré en Suisse, il obtient le droit de pratiquer et s'établit à Orbe. 
 Comme d'autres médecins vaudois, Henri du Plessis-Gouret s'engage dans l'ambulance suisse lors de la guerre franco-prussienne de 1870, puis il est mobilisé dans les troupes gardant les frontières. En 1870, Duplessis est nommé professeur extraordinaire à la chaire de zoologie et anatomie comparées de la Faculté des sciences (1870-1885), puis professeur d'enseignement du microscopie à la Section de pharmacie (1874-1885), profitant à plusieurs reprises de congés pour perfectionner ses connaissances zoologiques à l'étranger. Entre 1874 à 1876, il prend en charge le Musée cantonal de zoologie. 
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Henri du Plessis-Gouret », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Henri Blanc, "Le docteur Georges du Plessis 1838-1913", in Bulletin de la Société vaudoise des sciences naturelles, 1914, p. 113-122
